--- a/Input/Runfiles/RiskDriverSimulation/FXinput.xlsx
+++ b/Input/Runfiles/RiskDriverSimulation/FXinput.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\Python Tool Dicts\Input\Runfiles\RiskDriverSimulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Runfiles\RiskDriverSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222E3B9C-2DFA-464E-AD1A-C061DB0505E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2455C0EA-2906-4D75-8FD8-069104E29DBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -504,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Input/Runfiles/RiskDriverSimulation/FXinput.xlsx
+++ b/Input/Runfiles/RiskDriverSimulation/FXinput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Runfiles\RiskDriverSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2455C0EA-2906-4D75-8FD8-069104E29DBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3AE204-9A29-49FA-BD8D-93F6C06E5953}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,12 +41,6 @@
     <t>Volatility</t>
   </si>
   <si>
-    <t>EURUSD</t>
-  </si>
-  <si>
-    <t>EURUSD VOL 8Y COTERMINAL 31122019</t>
-  </si>
-  <si>
     <t>foreign1</t>
   </si>
   <si>
@@ -129,13 +123,19 @@
   </si>
   <si>
     <t>foreign28</t>
+  </si>
+  <si>
+    <t>USDEUR</t>
+  </si>
+  <si>
+    <t>USDEUR Vol 14Y coterm 3perc 30112020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +148,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -513,95 +517,95 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>30</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -609,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -617,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.1212599999999999</v>
+        <v>0.83840000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
@@ -625,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
